--- a/newTest/output_formatted.xlsx
+++ b/newTest/output_formatted.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="65">
   <si>
     <t>Dim</t>
   </si>
@@ -22,25 +22,21 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Tol (-)</t>
-  </si>
-  <si>
-    <t>Tol (+)</t>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Tol
+(-)</t>
+  </si>
+  <si>
+    <t>Tol
+(+)</t>
   </si>
   <si>
     <t>XS</t>
   </si>
   <si>
     <t>S</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>XL</t>
   </si>
   <si>
     <t>1B1</t>
@@ -135,7 +131,19 @@
     <t>Rib Widthat Neck</t>
   </si>
   <si>
-    <t>N/A</t>
+    <t>-1.00</t>
+  </si>
+  <si>
+    <t>-0.50</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>1.00</t>
+  </si>
+  <si>
+    <t>0.50</t>
   </si>
   <si>
     <t>Increm
@@ -564,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -572,12 +580,11 @@
   <cols>
     <col min="1" max="1" width="24.7109375" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" customWidth="1"/>
-    <col min="3" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="9" width="3.7109375" customWidth="1"/>
+    <col min="3" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -599,457 +606,295 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>9</v>
-      </c>
       <c r="B2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
         <v>40</v>
       </c>
       <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" t="s">
         <v>53</v>
       </c>
-      <c r="G2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s">
         <v>54</v>
       </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>39</v>
-      </c>
-      <c r="I5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" t="s">
-        <v>39</v>
-      </c>
-      <c r="I8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" t="s">
-        <v>39</v>
-      </c>
-      <c r="I9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H10" t="s">
-        <v>39</v>
-      </c>
-      <c r="I10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-      <c r="F11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
-      </c>
-      <c r="D12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" t="s">
-        <v>39</v>
-      </c>
-      <c r="H12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" t="s">
-        <v>39</v>
-      </c>
-      <c r="H13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
+      <c r="G15" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>36</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-      <c r="E14" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" t="s">
-        <v>39</v>
-      </c>
-      <c r="I14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
       </c>
       <c r="D16" t="s">
         <v>39</v>
       </c>
       <c r="E16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" t="s">
-        <v>39</v>
-      </c>
-      <c r="H17" t="s">
-        <v>39</v>
-      </c>
-      <c r="I17" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
